--- a/coal_data_as_fired.xlsx
+++ b/coal_data_as_fired.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A56:N66"/>
+  <dimension ref="A56:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1154,6 +1154,754 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>35.26</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>40.26</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>5078</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>5798</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>46023</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>40.19</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>5784</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>40.54</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>5087</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>5857</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>5061</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>5799</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1192</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>35.07</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>5085</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>5776</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1246</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>16.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>34.46</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>4999</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>5769</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>35.35</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>40.33</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>5104</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>34.91</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>40.25</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>5821</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>1256</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>40.31</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>5040</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>5810</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>40.06</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>5834</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>4896</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>5504</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
